--- a/catalogue-service-micro/src/test/resources/template/MDF_Raw_MDF_Painted.xlsx
+++ b/catalogue-service-micro/src/test/resources/template/MDF_Raw_MDF_Painted.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\doguk\Desktop\Nimble\catalog-service\catalogue-service-micro\src\test\resources\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66BB0724-51E5-4ADE-BACB-B68CD5FD3FD4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAFA59ED-29A0-4671-8135-9B9652F2264B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="993" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="230">
   <si>
     <t>How to fill in this template?</t>
   </si>
@@ -731,12 +731,6 @@
   </si>
   <si>
     <t>FCA (Free Carrier)</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>PUBLISHED</t>
   </si>
 </sst>
 </file>
@@ -802,14 +796,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -824,6 +812,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1150,7 +1145,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1160,7 +1155,7 @@
       </c>
     </row>
     <row r="4" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1170,17 +1165,17 @@
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1230,7 +1225,7 @@
       </c>
     </row>
     <row r="19" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1265,7 +1260,7 @@
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="3" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1320,7 +1315,7 @@
       </c>
     </row>
     <row r="41" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="4" t="s">
+      <c r="A41" s="2" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1330,7 +1325,7 @@
       </c>
     </row>
     <row r="44" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A44" s="4" t="s">
+      <c r="A44" s="2" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1350,7 +1345,7 @@
       </c>
     </row>
     <row r="49" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A49" s="4" t="s">
+      <c r="A49" s="2" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1360,7 +1355,7 @@
       </c>
     </row>
     <row r="52" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A52" s="4" t="s">
+      <c r="A52" s="2" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1370,7 +1365,7 @@
       </c>
     </row>
     <row r="55" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A55" s="4" t="s">
+      <c r="A55" s="2" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1380,7 +1375,7 @@
       </c>
     </row>
     <row r="58" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A58" s="4" t="s">
+      <c r="A58" s="2" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1397,15 +1392,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:BY5"/>
+  <dimension ref="A1:BX5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:BX5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.140625" style="6"/>
+    <col min="1" max="1" width="27.140625" style="4"/>
     <col min="2" max="2" width="44.5703125"/>
     <col min="3" max="4" width="25.28515625"/>
     <col min="5" max="5" width="21.5703125"/>
@@ -1483,715 +1478,699 @@
     <col min="77" max="1025" width="10.85546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:77" ht="15" x14ac:dyDescent="0.25">
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="3" t="s">
+    <row r="1" spans="1:76" ht="15" x14ac:dyDescent="0.25">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3" t="s">
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
-      <c r="AA1" s="3"/>
-      <c r="AB1" s="3"/>
-      <c r="AC1" s="3"/>
-      <c r="AD1" s="3"/>
-      <c r="AE1" s="3"/>
-      <c r="AF1" s="3"/>
-      <c r="AG1" s="3"/>
-      <c r="AH1" s="3"/>
-      <c r="AI1" s="3"/>
-      <c r="AJ1" s="3"/>
-      <c r="AK1" s="3"/>
-      <c r="AL1" s="3"/>
-      <c r="AM1" s="3"/>
-      <c r="AN1" s="3"/>
-      <c r="AO1" s="3"/>
-      <c r="AP1" s="3"/>
-      <c r="AQ1" s="3"/>
-      <c r="AR1" s="3"/>
-      <c r="AS1" s="3"/>
-      <c r="AT1" s="3"/>
-      <c r="AU1" s="3"/>
-      <c r="AV1" s="3"/>
-      <c r="AW1" s="3"/>
-      <c r="AX1" s="3" t="s">
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
+      <c r="AC1" s="1"/>
+      <c r="AD1" s="1"/>
+      <c r="AE1" s="1"/>
+      <c r="AF1" s="1"/>
+      <c r="AG1" s="1"/>
+      <c r="AH1" s="1"/>
+      <c r="AI1" s="1"/>
+      <c r="AJ1" s="1"/>
+      <c r="AK1" s="1"/>
+      <c r="AL1" s="1"/>
+      <c r="AM1" s="1"/>
+      <c r="AN1" s="1"/>
+      <c r="AO1" s="1"/>
+      <c r="AP1" s="1"/>
+      <c r="AQ1" s="1"/>
+      <c r="AR1" s="1"/>
+      <c r="AS1" s="1"/>
+      <c r="AT1" s="1"/>
+      <c r="AU1" s="1"/>
+      <c r="AV1" s="1"/>
+      <c r="AW1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AY1" s="3"/>
-      <c r="AZ1" s="3"/>
-      <c r="BA1" s="3"/>
-      <c r="BB1" s="3"/>
-      <c r="BC1" s="3"/>
-      <c r="BD1" s="3"/>
-      <c r="BE1" s="3"/>
-      <c r="BF1" s="3"/>
-      <c r="BG1" s="3"/>
-      <c r="BH1" s="3"/>
-      <c r="BI1" s="3"/>
-      <c r="BJ1" s="3"/>
-      <c r="BK1" s="3"/>
-      <c r="BL1" s="3"/>
-      <c r="BM1" s="3"/>
-      <c r="BN1" s="3"/>
-      <c r="BO1" s="3"/>
-      <c r="BP1" s="3"/>
-      <c r="BQ1" s="3"/>
-      <c r="BR1" s="3"/>
-      <c r="BS1" s="3"/>
-      <c r="BT1" s="3"/>
-      <c r="BU1" s="3"/>
-      <c r="BV1" s="3"/>
-      <c r="BW1" s="3"/>
-      <c r="BX1" s="3"/>
-      <c r="BY1" s="3"/>
-    </row>
-    <row r="2" spans="1:77" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="AX1" s="1"/>
+      <c r="AY1" s="1"/>
+      <c r="AZ1" s="1"/>
+      <c r="BA1" s="1"/>
+      <c r="BB1" s="1"/>
+      <c r="BC1" s="1"/>
+      <c r="BD1" s="1"/>
+      <c r="BE1" s="1"/>
+      <c r="BF1" s="1"/>
+      <c r="BG1" s="1"/>
+      <c r="BH1" s="1"/>
+      <c r="BI1" s="1"/>
+      <c r="BJ1" s="1"/>
+      <c r="BK1" s="1"/>
+      <c r="BL1" s="1"/>
+      <c r="BM1" s="1"/>
+      <c r="BN1" s="1"/>
+      <c r="BO1" s="1"/>
+      <c r="BP1" s="1"/>
+      <c r="BQ1" s="1"/>
+      <c r="BR1" s="1"/>
+      <c r="BS1" s="1"/>
+      <c r="BT1" s="1"/>
+      <c r="BU1" s="1"/>
+      <c r="BV1" s="1"/>
+      <c r="BW1" s="1"/>
+      <c r="BX1" s="1"/>
+    </row>
+    <row r="2" spans="1:76" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="F2" s="8" t="s">
+      <c r="E2" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="8" t="s">
+      <c r="F2" s="4"/>
+      <c r="G2" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="I2" s="6"/>
-      <c r="J2" s="8" t="s">
+      <c r="H2" s="4"/>
+      <c r="I2" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="K2" s="6"/>
-      <c r="L2" s="8" t="s">
+      <c r="J2" s="4"/>
+      <c r="K2" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="L2" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="M2" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="O2" s="6"/>
-      <c r="P2" s="8" t="s">
+      <c r="N2" s="4"/>
+      <c r="O2" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="Q2" s="8" t="s">
+      <c r="P2" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="R2" s="8" t="s">
+      <c r="Q2" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="S2" s="8" t="s">
+      <c r="R2" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="T2" s="8" t="s">
+      <c r="S2" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="U2" s="8" t="s">
+      <c r="T2" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="V2" s="8" t="s">
+      <c r="U2" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="W2" s="8" t="s">
+      <c r="V2" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="X2" s="8" t="s">
+      <c r="W2" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="Y2" s="8" t="s">
+      <c r="X2" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="Z2" s="8" t="s">
+      <c r="Y2" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="AA2" s="8" t="s">
+      <c r="Z2" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="AB2" s="8" t="s">
+      <c r="AA2" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="AC2" s="8" t="s">
+      <c r="AB2" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="AD2" s="8" t="s">
+      <c r="AC2" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="AE2" s="8" t="s">
+      <c r="AD2" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="AF2" s="8" t="s">
+      <c r="AE2" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="AG2" s="8" t="s">
+      <c r="AF2" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="AH2" s="8" t="s">
+      <c r="AG2" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="AI2" s="8" t="s">
+      <c r="AH2" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="AJ2" s="8" t="s">
+      <c r="AI2" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="AK2" s="8" t="s">
+      <c r="AJ2" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="AL2" s="8" t="s">
+      <c r="AK2" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="AM2" s="8" t="s">
+      <c r="AL2" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="AN2" s="8" t="s">
+      <c r="AM2" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="AO2" s="8" t="s">
+      <c r="AN2" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="AP2" s="8" t="s">
+      <c r="AO2" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="AQ2" s="6"/>
-      <c r="AR2" s="8" t="s">
+      <c r="AP2" s="4"/>
+      <c r="AQ2" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="AS2" s="6"/>
-      <c r="AT2" s="8" t="s">
+      <c r="AR2" s="4"/>
+      <c r="AS2" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="AU2" s="6"/>
-      <c r="AV2" s="8" t="s">
+      <c r="AT2" s="4"/>
+      <c r="AU2" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="AW2" s="6"/>
-      <c r="AX2" s="8" t="s">
+      <c r="AV2" s="4"/>
+      <c r="AW2" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="AY2" s="8" t="s">
+      <c r="AX2" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="AZ2" s="8" t="s">
+      <c r="AY2" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="BA2" s="8" t="s">
+      <c r="AZ2" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="BB2" s="8" t="s">
+      <c r="BA2" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="BC2" s="8" t="s">
+      <c r="BB2" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="BD2" s="8" t="s">
+      <c r="BC2" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="BE2" s="8" t="s">
+      <c r="BD2" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="BF2" s="8" t="s">
+      <c r="BE2" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="BG2" s="8" t="s">
+      <c r="BF2" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="BH2" s="8" t="s">
+      <c r="BG2" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="BI2" s="8" t="s">
+      <c r="BH2" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="BJ2" s="8" t="s">
+      <c r="BI2" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="BK2" s="8" t="s">
+      <c r="BJ2" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="BL2" s="8" t="s">
+      <c r="BK2" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="BM2" s="8" t="s">
+      <c r="BL2" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="BN2" s="8" t="s">
+      <c r="BM2" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="BO2" s="8" t="s">
+      <c r="BN2" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="BP2" s="8" t="s">
+      <c r="BO2" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="BQ2" s="8" t="s">
+      <c r="BP2" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="BR2" s="8" t="s">
+      <c r="BQ2" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="BS2" s="8" t="s">
+      <c r="BR2" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="BT2" s="8" t="s">
+      <c r="BS2" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="BU2" s="8" t="s">
+      <c r="BT2" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="BV2" s="8" t="s">
+      <c r="BU2" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="BW2" s="8" t="s">
+      <c r="BV2" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="BX2" s="8" t="s">
+      <c r="BW2" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="BY2" s="6"/>
-    </row>
-    <row r="3" spans="1:77" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="BX2" s="4"/>
+    </row>
+    <row r="3" spans="1:76" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="F3" s="6" t="s">
+      <c r="C3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="F3" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="G3" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="H3" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="I3" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="J3" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="L3" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="N3" s="6" t="s">
+      <c r="K3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="M3" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="O3" s="6" t="s">
+      <c r="N3" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="P3" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q3" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="R3" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="S3" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="T3" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="U3" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="V3" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="W3" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="X3" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="Y3" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="Z3" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="AA3" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="AB3" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="AC3" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="AD3" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="AE3" s="6" t="s">
+      <c r="O3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="T3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="V3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="W3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="X3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="AA3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="AB3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="AD3" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="AF3" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="AG3" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="AH3" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="AI3" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="AJ3" s="6" t="s">
+      <c r="AE3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="AF3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="AG3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="AH3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="AI3" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="AK3" s="6" t="s">
+      <c r="AJ3" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="AL3" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="AM3" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="AN3" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="AO3" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="AP3" s="6" t="s">
+      <c r="AK3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="AL3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="AM3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="AN3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="AO3" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="AQ3" s="6" t="s">
+      <c r="AP3" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="AR3" s="6" t="s">
+      <c r="AQ3" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="AS3" s="6" t="s">
+      <c r="AR3" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="AT3" s="6" t="s">
+      <c r="AS3" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="AU3" s="6" t="s">
+      <c r="AT3" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="AV3" s="6" t="s">
+      <c r="AU3" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="AW3" s="6" t="s">
+      <c r="AV3" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="AX3" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="AY3" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="AZ3" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="BA3" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="BB3" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="BC3" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="BD3" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="BE3" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="BF3" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="BG3" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="BH3" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="BI3" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="BJ3" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="BK3" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="BL3" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="BM3" s="6" t="s">
+      <c r="AW3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="AX3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="AY3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="AZ3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="BA3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="BB3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="BC3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="BD3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="BE3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="BF3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="BG3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="BH3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="BI3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="BJ3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="BK3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="BL3" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="BN3" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="BO3" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="BP3" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="BQ3" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="BR3" s="6" t="s">
+      <c r="BM3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="BN3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="BO3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="BP3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="BQ3" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="BS3" s="6" t="s">
+      <c r="BR3" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="BT3" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="BU3" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="BV3" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="BW3" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="BX3" s="6" t="s">
+      <c r="BS3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="BT3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="BU3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="BV3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="BW3" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="BY3" s="6" t="s">
+      <c r="BX3" s="4" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:77" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+    <row r="4" spans="1:76" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
-      <c r="V4" s="6"/>
-      <c r="W4" s="6"/>
-      <c r="X4" s="6"/>
-      <c r="Y4" s="6"/>
-      <c r="Z4" s="6"/>
-      <c r="AA4" s="6"/>
-      <c r="AB4" s="6"/>
-      <c r="AC4" s="6"/>
-      <c r="AD4" s="6"/>
-      <c r="AE4" s="6"/>
-      <c r="AF4" s="6"/>
-      <c r="AG4" s="6"/>
-      <c r="AH4" s="6"/>
-      <c r="AI4" s="6"/>
-      <c r="AJ4" s="6"/>
-      <c r="AK4" s="6"/>
-      <c r="AL4" s="6"/>
-      <c r="AM4" s="6"/>
-      <c r="AN4" s="6"/>
-      <c r="AO4" s="6"/>
-      <c r="AP4" s="6"/>
-      <c r="AQ4" s="6"/>
-      <c r="AR4" s="6"/>
-      <c r="AS4" s="6"/>
-      <c r="AT4" s="6"/>
-      <c r="AU4" s="6"/>
-      <c r="AV4" s="6"/>
-      <c r="AW4" s="6"/>
-      <c r="AX4" s="6"/>
-      <c r="AY4" s="6"/>
-      <c r="AZ4" s="6"/>
-      <c r="BA4" s="6"/>
-      <c r="BB4" s="6"/>
-      <c r="BC4" s="6"/>
-      <c r="BD4" s="6"/>
-      <c r="BE4" s="6"/>
-      <c r="BF4" s="6"/>
-      <c r="BG4" s="6"/>
-      <c r="BH4" s="6"/>
-      <c r="BI4" s="6"/>
-      <c r="BJ4" s="6"/>
-      <c r="BK4" s="6"/>
-      <c r="BL4" s="6"/>
-      <c r="BM4" s="6"/>
-      <c r="BN4" s="6"/>
-      <c r="BO4" s="6"/>
-      <c r="BP4" s="6"/>
-      <c r="BQ4" s="6"/>
-      <c r="BR4" s="6"/>
-      <c r="BS4" s="6"/>
-      <c r="BT4" s="6"/>
-      <c r="BU4" s="6"/>
-      <c r="BV4" s="6"/>
-      <c r="BW4" s="6"/>
-      <c r="BX4" s="6"/>
-      <c r="BY4" s="6"/>
-    </row>
-    <row r="5" spans="1:77" x14ac:dyDescent="0.2">
-      <c r="B5" s="5" t="s">
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
+      <c r="X4" s="4"/>
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="4"/>
+      <c r="AA4" s="4"/>
+      <c r="AB4" s="4"/>
+      <c r="AC4" s="4"/>
+      <c r="AD4" s="4"/>
+      <c r="AE4" s="4"/>
+      <c r="AF4" s="4"/>
+      <c r="AG4" s="4"/>
+      <c r="AH4" s="4"/>
+      <c r="AI4" s="4"/>
+      <c r="AJ4" s="4"/>
+      <c r="AK4" s="4"/>
+      <c r="AL4" s="4"/>
+      <c r="AM4" s="4"/>
+      <c r="AN4" s="4"/>
+      <c r="AO4" s="4"/>
+      <c r="AP4" s="4"/>
+      <c r="AQ4" s="4"/>
+      <c r="AR4" s="4"/>
+      <c r="AS4" s="4"/>
+      <c r="AT4" s="4"/>
+      <c r="AU4" s="4"/>
+      <c r="AV4" s="4"/>
+      <c r="AW4" s="4"/>
+      <c r="AX4" s="4"/>
+      <c r="AY4" s="4"/>
+      <c r="AZ4" s="4"/>
+      <c r="BA4" s="4"/>
+      <c r="BB4" s="4"/>
+      <c r="BC4" s="4"/>
+      <c r="BD4" s="4"/>
+      <c r="BE4" s="4"/>
+      <c r="BF4" s="4"/>
+      <c r="BG4" s="4"/>
+      <c r="BH4" s="4"/>
+      <c r="BI4" s="4"/>
+      <c r="BJ4" s="4"/>
+      <c r="BK4" s="4"/>
+      <c r="BL4" s="4"/>
+      <c r="BM4" s="4"/>
+      <c r="BN4" s="4"/>
+      <c r="BO4" s="4"/>
+      <c r="BP4" s="4"/>
+      <c r="BQ4" s="4"/>
+      <c r="BR4" s="4"/>
+      <c r="BS4" s="4"/>
+      <c r="BT4" s="4"/>
+      <c r="BU4" s="4"/>
+      <c r="BV4" s="4"/>
+      <c r="BW4" s="4"/>
+      <c r="BX4" s="4"/>
+    </row>
+    <row r="5" spans="1:76" x14ac:dyDescent="0.2">
+      <c r="B5" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7" t="s">
-        <v>231</v>
-      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
       <c r="F5" s="7"/>
-      <c r="G5" s="9"/>
+      <c r="G5" s="5"/>
       <c r="H5" s="7"/>
-      <c r="I5" s="9"/>
+      <c r="I5" s="5"/>
       <c r="J5" s="7"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
-      <c r="U5" s="7"/>
-      <c r="V5" s="7"/>
-      <c r="W5" s="7"/>
-      <c r="X5" s="7"/>
-      <c r="Y5" s="7"/>
-      <c r="Z5" s="7"/>
-      <c r="AA5" s="7"/>
-      <c r="AB5" s="7"/>
-      <c r="AC5" s="7"/>
-      <c r="AD5" s="7"/>
-      <c r="AE5" s="7"/>
-      <c r="AF5" s="7"/>
-      <c r="AG5" s="7"/>
-      <c r="AH5" s="7"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5"/>
+      <c r="AA5" s="5"/>
+      <c r="AB5" s="5"/>
+      <c r="AC5" s="5"/>
+      <c r="AD5" s="5"/>
+      <c r="AE5" s="5"/>
+      <c r="AF5" s="5"/>
+      <c r="AG5" s="5"/>
+      <c r="AH5" s="5"/>
       <c r="AI5" s="7"/>
-      <c r="AJ5" s="9"/>
-      <c r="AK5" s="9"/>
-      <c r="AL5" s="7"/>
-      <c r="AM5" s="7"/>
-      <c r="AN5" s="7"/>
-      <c r="AO5" s="7"/>
-      <c r="AP5" s="7"/>
-      <c r="AQ5" s="7"/>
-      <c r="AR5" s="7"/>
-      <c r="AS5" s="7"/>
-      <c r="AT5" s="7"/>
-      <c r="AU5" s="7"/>
-      <c r="AV5" s="7"/>
-      <c r="AW5" s="7"/>
-      <c r="AX5" s="7"/>
-      <c r="AY5" s="7"/>
-      <c r="AZ5" s="7"/>
-      <c r="BA5" s="7"/>
-      <c r="BB5" s="7"/>
-      <c r="BC5" s="7"/>
-      <c r="BD5" s="7"/>
-      <c r="BE5" s="7"/>
-      <c r="BF5" s="7"/>
-      <c r="BG5" s="7"/>
-      <c r="BH5" s="7"/>
-      <c r="BI5" s="7"/>
-      <c r="BJ5" s="7"/>
-      <c r="BK5" s="7"/>
-      <c r="BL5" s="7"/>
-      <c r="BM5" s="7"/>
-      <c r="BN5" s="7"/>
-      <c r="BO5" s="7"/>
-      <c r="BP5" s="7"/>
+      <c r="AJ5" s="7"/>
+      <c r="AK5" s="5"/>
+      <c r="AL5" s="5"/>
+      <c r="AM5" s="5"/>
+      <c r="AN5" s="5"/>
+      <c r="AO5" s="5"/>
+      <c r="AP5" s="5"/>
+      <c r="AQ5" s="5"/>
+      <c r="AR5" s="5"/>
+      <c r="AS5" s="5"/>
+      <c r="AT5" s="5"/>
+      <c r="AU5" s="5"/>
+      <c r="AV5" s="5"/>
+      <c r="AW5" s="5"/>
+      <c r="AX5" s="5"/>
+      <c r="AY5" s="5"/>
+      <c r="AZ5" s="5"/>
+      <c r="BA5" s="5"/>
+      <c r="BB5" s="5"/>
+      <c r="BC5" s="5"/>
+      <c r="BD5" s="5"/>
+      <c r="BE5" s="5"/>
+      <c r="BF5" s="5"/>
+      <c r="BG5" s="5"/>
+      <c r="BH5" s="5"/>
+      <c r="BI5" s="5"/>
+      <c r="BJ5" s="5"/>
+      <c r="BK5" s="5"/>
+      <c r="BL5" s="5"/>
+      <c r="BM5" s="5"/>
+      <c r="BN5" s="5"/>
+      <c r="BO5" s="5"/>
+      <c r="BP5" s="5"/>
       <c r="BQ5" s="7"/>
-      <c r="BR5" s="9"/>
-      <c r="BS5" s="9"/>
-      <c r="BT5" s="7"/>
-      <c r="BU5" s="7"/>
-      <c r="BV5" s="7"/>
-      <c r="BW5" s="7"/>
-      <c r="BX5" s="7"/>
-      <c r="BY5" s="7"/>
+      <c r="BR5" s="7"/>
+      <c r="BS5" s="5"/>
+      <c r="BT5" s="5"/>
+      <c r="BU5" s="5"/>
+      <c r="BV5" s="5"/>
+      <c r="BW5" s="5"/>
+      <c r="BX5" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="F1:K1"/>
-    <mergeCell ref="L1:AW1"/>
-    <mergeCell ref="AX1:BY1"/>
-  </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Invalid input !" error="Please, select one of the available options" sqref="G5 K5 I5" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Invalid input !" error="Please, select one of the available options" sqref="F5 J5 H5" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>Dimension</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Invalid input !" error="Please, select one of the available options" sqref="BR5:BS5 AJ5:AK5" xr:uid="{00000000-0002-0000-0100-000003000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Invalid input !" error="Please, select one of the available options" sqref="BQ5:BR5 AI5:AJ5" xr:uid="{00000000-0002-0000-0100-000003000000}">
       <formula1>Boolean</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -2209,7 +2188,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.140625" style="6"/>
+    <col min="1" max="1" width="27.140625" style="4"/>
     <col min="2" max="2" width="44.5703125"/>
     <col min="3" max="3" width="25.28515625"/>
     <col min="4" max="4" width="44.28515625"/>
@@ -2289,704 +2268,704 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:76" ht="15" x14ac:dyDescent="0.2">
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="2" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2" t="s">
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2"/>
-      <c r="AE1" s="2"/>
-      <c r="AF1" s="2"/>
-      <c r="AG1" s="2"/>
-      <c r="AH1" s="2"/>
-      <c r="AI1" s="2"/>
-      <c r="AJ1" s="2"/>
-      <c r="AK1" s="2"/>
-      <c r="AL1" s="2"/>
-      <c r="AM1" s="2"/>
-      <c r="AN1" s="2"/>
-      <c r="AO1" s="2"/>
-      <c r="AP1" s="2"/>
-      <c r="AQ1" s="2"/>
-      <c r="AR1" s="2"/>
-      <c r="AS1" s="2"/>
-      <c r="AT1" s="2"/>
-      <c r="AU1" s="2"/>
-      <c r="AV1" s="2"/>
-      <c r="AW1" s="2" t="s">
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="11"/>
+      <c r="W1" s="11"/>
+      <c r="X1" s="11"/>
+      <c r="Y1" s="11"/>
+      <c r="Z1" s="11"/>
+      <c r="AA1" s="11"/>
+      <c r="AB1" s="11"/>
+      <c r="AC1" s="11"/>
+      <c r="AD1" s="11"/>
+      <c r="AE1" s="11"/>
+      <c r="AF1" s="11"/>
+      <c r="AG1" s="11"/>
+      <c r="AH1" s="11"/>
+      <c r="AI1" s="11"/>
+      <c r="AJ1" s="11"/>
+      <c r="AK1" s="11"/>
+      <c r="AL1" s="11"/>
+      <c r="AM1" s="11"/>
+      <c r="AN1" s="11"/>
+      <c r="AO1" s="11"/>
+      <c r="AP1" s="11"/>
+      <c r="AQ1" s="11"/>
+      <c r="AR1" s="11"/>
+      <c r="AS1" s="11"/>
+      <c r="AT1" s="11"/>
+      <c r="AU1" s="11"/>
+      <c r="AV1" s="11"/>
+      <c r="AW1" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="AX1" s="2"/>
-      <c r="AY1" s="2"/>
-      <c r="AZ1" s="2"/>
-      <c r="BA1" s="2"/>
-      <c r="BB1" s="2"/>
-      <c r="BC1" s="2"/>
-      <c r="BD1" s="2"/>
-      <c r="BE1" s="2"/>
-      <c r="BF1" s="2"/>
-      <c r="BG1" s="2"/>
-      <c r="BH1" s="2"/>
-      <c r="BI1" s="2"/>
-      <c r="BJ1" s="2"/>
-      <c r="BK1" s="2"/>
-      <c r="BL1" s="2"/>
-      <c r="BM1" s="2"/>
-      <c r="BN1" s="2"/>
-      <c r="BO1" s="2"/>
-      <c r="BP1" s="2"/>
-      <c r="BQ1" s="2"/>
-      <c r="BR1" s="2"/>
-      <c r="BS1" s="2"/>
-      <c r="BT1" s="2"/>
-      <c r="BU1" s="2"/>
-      <c r="BV1" s="2"/>
-      <c r="BW1" s="2"/>
-      <c r="BX1" s="2"/>
+      <c r="AX1" s="11"/>
+      <c r="AY1" s="11"/>
+      <c r="AZ1" s="11"/>
+      <c r="BA1" s="11"/>
+      <c r="BB1" s="11"/>
+      <c r="BC1" s="11"/>
+      <c r="BD1" s="11"/>
+      <c r="BE1" s="11"/>
+      <c r="BF1" s="11"/>
+      <c r="BG1" s="11"/>
+      <c r="BH1" s="11"/>
+      <c r="BI1" s="11"/>
+      <c r="BJ1" s="11"/>
+      <c r="BK1" s="11"/>
+      <c r="BL1" s="11"/>
+      <c r="BM1" s="11"/>
+      <c r="BN1" s="11"/>
+      <c r="BO1" s="11"/>
+      <c r="BP1" s="11"/>
+      <c r="BQ1" s="11"/>
+      <c r="BR1" s="11"/>
+      <c r="BS1" s="11"/>
+      <c r="BT1" s="11"/>
+      <c r="BU1" s="11"/>
+      <c r="BV1" s="11"/>
+      <c r="BW1" s="11"/>
+      <c r="BX1" s="11"/>
     </row>
     <row r="2" spans="1:76" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="8" t="s">
+      <c r="F2" s="4"/>
+      <c r="G2" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="8" t="s">
+      <c r="H2" s="4"/>
+      <c r="I2" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="J2" s="6"/>
-      <c r="K2" s="8" t="s">
+      <c r="J2" s="4"/>
+      <c r="K2" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="L2" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="M2" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="N2" s="6"/>
-      <c r="O2" s="8" t="s">
+      <c r="N2" s="4"/>
+      <c r="O2" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="P2" s="8" t="s">
+      <c r="P2" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="Q2" s="8" t="s">
+      <c r="Q2" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="R2" s="8" t="s">
+      <c r="R2" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="S2" s="8" t="s">
+      <c r="S2" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="T2" s="8" t="s">
+      <c r="T2" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="U2" s="8" t="s">
+      <c r="U2" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="V2" s="8" t="s">
+      <c r="V2" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="W2" s="8" t="s">
+      <c r="W2" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="X2" s="8" t="s">
+      <c r="X2" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="Y2" s="8" t="s">
+      <c r="Y2" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="Z2" s="8" t="s">
+      <c r="Z2" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="AA2" s="8" t="s">
+      <c r="AA2" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="AB2" s="8" t="s">
+      <c r="AB2" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="AC2" s="8" t="s">
+      <c r="AC2" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="AD2" s="8" t="s">
+      <c r="AD2" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="AE2" s="8" t="s">
+      <c r="AE2" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="AF2" s="8" t="s">
+      <c r="AF2" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="AG2" s="8" t="s">
+      <c r="AG2" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="AH2" s="8" t="s">
+      <c r="AH2" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="AI2" s="8" t="s">
+      <c r="AI2" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="AJ2" s="8" t="s">
+      <c r="AJ2" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="AK2" s="8" t="s">
+      <c r="AK2" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="AL2" s="8" t="s">
+      <c r="AL2" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="AM2" s="8" t="s">
+      <c r="AM2" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="AN2" s="8" t="s">
+      <c r="AN2" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="AO2" s="8" t="s">
+      <c r="AO2" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="AP2" s="6"/>
-      <c r="AQ2" s="8" t="s">
+      <c r="AP2" s="4"/>
+      <c r="AQ2" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="AR2" s="6"/>
-      <c r="AS2" s="8" t="s">
+      <c r="AR2" s="4"/>
+      <c r="AS2" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="AT2" s="6"/>
-      <c r="AU2" s="8" t="s">
+      <c r="AT2" s="4"/>
+      <c r="AU2" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="AV2" s="6"/>
-      <c r="AW2" s="8" t="s">
+      <c r="AV2" s="4"/>
+      <c r="AW2" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="AX2" s="8" t="s">
+      <c r="AX2" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="AY2" s="8" t="s">
+      <c r="AY2" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="AZ2" s="8" t="s">
+      <c r="AZ2" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="BA2" s="8" t="s">
+      <c r="BA2" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="BB2" s="8" t="s">
+      <c r="BB2" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="BC2" s="8" t="s">
+      <c r="BC2" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="BD2" s="8" t="s">
+      <c r="BD2" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="BE2" s="8" t="s">
+      <c r="BE2" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="BF2" s="8" t="s">
+      <c r="BF2" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="BG2" s="8" t="s">
+      <c r="BG2" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="BH2" s="8" t="s">
+      <c r="BH2" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="BI2" s="8" t="s">
+      <c r="BI2" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="BJ2" s="8" t="s">
+      <c r="BJ2" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="BK2" s="8" t="s">
+      <c r="BK2" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="BL2" s="8" t="s">
+      <c r="BL2" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="BM2" s="8" t="s">
+      <c r="BM2" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="BN2" s="8" t="s">
+      <c r="BN2" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="BO2" s="8" t="s">
+      <c r="BO2" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="BP2" s="8" t="s">
+      <c r="BP2" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="BQ2" s="8" t="s">
+      <c r="BQ2" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="BR2" s="8" t="s">
+      <c r="BR2" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="BS2" s="8" t="s">
+      <c r="BS2" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="BT2" s="8" t="s">
+      <c r="BT2" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="BU2" s="8" t="s">
+      <c r="BU2" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="BV2" s="8" t="s">
+      <c r="BV2" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="BW2" s="8" t="s">
+      <c r="BW2" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="BX2" s="6"/>
+      <c r="BX2" s="4"/>
     </row>
     <row r="3" spans="1:76" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="E3" s="6" t="s">
+      <c r="C3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="K3" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="M3" s="6" t="s">
+      <c r="K3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="M3" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="N3" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="O3" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="P3" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q3" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="R3" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="S3" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="T3" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="U3" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="V3" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="W3" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="X3" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="Y3" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="Z3" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="AA3" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="AB3" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="AC3" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="AD3" s="6" t="s">
+      <c r="O3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="T3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="V3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="W3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="X3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="AA3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="AB3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="AD3" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="AE3" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="AF3" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="AG3" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="AH3" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="AI3" s="6" t="s">
+      <c r="AE3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="AF3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="AG3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="AH3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="AI3" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="AJ3" s="6" t="s">
+      <c r="AJ3" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="AK3" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="AL3" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="AM3" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="AN3" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="AO3" s="6" t="s">
+      <c r="AK3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="AL3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="AM3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="AN3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="AO3" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="AP3" s="6" t="s">
+      <c r="AP3" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="AQ3" s="6" t="s">
+      <c r="AQ3" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="AR3" s="6" t="s">
+      <c r="AR3" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="AS3" s="6" t="s">
+      <c r="AS3" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="AT3" s="6" t="s">
+      <c r="AT3" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="AU3" s="6" t="s">
+      <c r="AU3" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="AV3" s="6" t="s">
+      <c r="AV3" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="AW3" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="AX3" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="AY3" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="AZ3" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="BA3" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="BB3" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="BC3" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="BD3" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="BE3" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="BF3" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="BG3" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="BH3" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="BI3" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="BJ3" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="BK3" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="BL3" s="6" t="s">
+      <c r="AW3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="AX3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="AY3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="AZ3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="BA3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="BB3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="BC3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="BD3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="BE3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="BF3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="BG3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="BH3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="BI3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="BJ3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="BK3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="BL3" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="BM3" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="BN3" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="BO3" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="BP3" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="BQ3" s="6" t="s">
+      <c r="BM3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="BN3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="BO3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="BP3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="BQ3" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="BR3" s="6" t="s">
+      <c r="BR3" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="BS3" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="BT3" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="BU3" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="BV3" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="BW3" s="6" t="s">
+      <c r="BS3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="BT3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="BU3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="BV3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="BW3" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="BX3" s="6" t="s">
+      <c r="BX3" s="4" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:76" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
-      <c r="V4" s="6"/>
-      <c r="W4" s="6"/>
-      <c r="X4" s="6"/>
-      <c r="Y4" s="6"/>
-      <c r="Z4" s="6"/>
-      <c r="AA4" s="6"/>
-      <c r="AB4" s="6"/>
-      <c r="AC4" s="6"/>
-      <c r="AD4" s="6"/>
-      <c r="AE4" s="6"/>
-      <c r="AF4" s="6"/>
-      <c r="AG4" s="6"/>
-      <c r="AH4" s="6"/>
-      <c r="AI4" s="6"/>
-      <c r="AJ4" s="6"/>
-      <c r="AK4" s="6"/>
-      <c r="AL4" s="6"/>
-      <c r="AM4" s="6"/>
-      <c r="AN4" s="6"/>
-      <c r="AO4" s="6"/>
-      <c r="AP4" s="6"/>
-      <c r="AQ4" s="6"/>
-      <c r="AR4" s="6"/>
-      <c r="AS4" s="6"/>
-      <c r="AT4" s="6"/>
-      <c r="AU4" s="6"/>
-      <c r="AV4" s="6"/>
-      <c r="AW4" s="6"/>
-      <c r="AX4" s="6"/>
-      <c r="AY4" s="6"/>
-      <c r="AZ4" s="6"/>
-      <c r="BA4" s="6"/>
-      <c r="BB4" s="6"/>
-      <c r="BC4" s="6"/>
-      <c r="BD4" s="6"/>
-      <c r="BE4" s="6"/>
-      <c r="BF4" s="6"/>
-      <c r="BG4" s="6"/>
-      <c r="BH4" s="6"/>
-      <c r="BI4" s="6"/>
-      <c r="BJ4" s="6"/>
-      <c r="BK4" s="6"/>
-      <c r="BL4" s="6"/>
-      <c r="BM4" s="6"/>
-      <c r="BN4" s="6"/>
-      <c r="BO4" s="6"/>
-      <c r="BP4" s="6"/>
-      <c r="BQ4" s="6"/>
-      <c r="BR4" s="6"/>
-      <c r="BS4" s="6"/>
-      <c r="BT4" s="6"/>
-      <c r="BU4" s="6"/>
-      <c r="BV4" s="6"/>
-      <c r="BW4" s="6"/>
-      <c r="BX4" s="6"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
+      <c r="X4" s="4"/>
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="4"/>
+      <c r="AA4" s="4"/>
+      <c r="AB4" s="4"/>
+      <c r="AC4" s="4"/>
+      <c r="AD4" s="4"/>
+      <c r="AE4" s="4"/>
+      <c r="AF4" s="4"/>
+      <c r="AG4" s="4"/>
+      <c r="AH4" s="4"/>
+      <c r="AI4" s="4"/>
+      <c r="AJ4" s="4"/>
+      <c r="AK4" s="4"/>
+      <c r="AL4" s="4"/>
+      <c r="AM4" s="4"/>
+      <c r="AN4" s="4"/>
+      <c r="AO4" s="4"/>
+      <c r="AP4" s="4"/>
+      <c r="AQ4" s="4"/>
+      <c r="AR4" s="4"/>
+      <c r="AS4" s="4"/>
+      <c r="AT4" s="4"/>
+      <c r="AU4" s="4"/>
+      <c r="AV4" s="4"/>
+      <c r="AW4" s="4"/>
+      <c r="AX4" s="4"/>
+      <c r="AY4" s="4"/>
+      <c r="AZ4" s="4"/>
+      <c r="BA4" s="4"/>
+      <c r="BB4" s="4"/>
+      <c r="BC4" s="4"/>
+      <c r="BD4" s="4"/>
+      <c r="BE4" s="4"/>
+      <c r="BF4" s="4"/>
+      <c r="BG4" s="4"/>
+      <c r="BH4" s="4"/>
+      <c r="BI4" s="4"/>
+      <c r="BJ4" s="4"/>
+      <c r="BK4" s="4"/>
+      <c r="BL4" s="4"/>
+      <c r="BM4" s="4"/>
+      <c r="BN4" s="4"/>
+      <c r="BO4" s="4"/>
+      <c r="BP4" s="4"/>
+      <c r="BQ4" s="4"/>
+      <c r="BR4" s="4"/>
+      <c r="BS4" s="4"/>
+      <c r="BT4" s="4"/>
+      <c r="BU4" s="4"/>
+      <c r="BV4" s="4"/>
+      <c r="BW4" s="4"/>
+      <c r="BX4" s="4"/>
     </row>
     <row r="5" spans="1:76" x14ac:dyDescent="0.2">
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="J5" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
-      <c r="U5" s="7"/>
-      <c r="V5" s="7"/>
-      <c r="W5" s="7"/>
-      <c r="X5" s="7"/>
-      <c r="Y5" s="7"/>
-      <c r="Z5" s="7"/>
-      <c r="AA5" s="7"/>
-      <c r="AB5" s="7"/>
-      <c r="AC5" s="7"/>
-      <c r="AD5" s="7"/>
-      <c r="AE5" s="7"/>
-      <c r="AF5" s="7"/>
-      <c r="AG5" s="7"/>
-      <c r="AH5" s="7"/>
-      <c r="AI5" s="9"/>
-      <c r="AJ5" s="9"/>
-      <c r="AK5" s="7"/>
-      <c r="AL5" s="7"/>
-      <c r="AM5" s="7"/>
-      <c r="AN5" s="7"/>
-      <c r="AO5" s="7"/>
-      <c r="AP5" s="7"/>
-      <c r="AQ5" s="7"/>
-      <c r="AR5" s="7"/>
-      <c r="AS5" s="7"/>
-      <c r="AT5" s="7"/>
-      <c r="AU5" s="7"/>
-      <c r="AV5" s="7"/>
-      <c r="AW5" s="7"/>
-      <c r="AX5" s="7"/>
-      <c r="AY5" s="7"/>
-      <c r="AZ5" s="7"/>
-      <c r="BA5" s="7"/>
-      <c r="BB5" s="7"/>
-      <c r="BC5" s="7"/>
-      <c r="BD5" s="7"/>
-      <c r="BE5" s="7"/>
-      <c r="BF5" s="7"/>
-      <c r="BG5" s="7"/>
-      <c r="BH5" s="7"/>
-      <c r="BI5" s="7"/>
-      <c r="BJ5" s="7"/>
-      <c r="BK5" s="7"/>
-      <c r="BL5" s="7"/>
-      <c r="BM5" s="7"/>
-      <c r="BN5" s="7"/>
-      <c r="BO5" s="7"/>
-      <c r="BP5" s="7"/>
-      <c r="BQ5" s="9"/>
-      <c r="BR5" s="9"/>
-      <c r="BS5" s="7"/>
-      <c r="BT5" s="7"/>
-      <c r="BU5" s="7"/>
-      <c r="BV5" s="7"/>
-      <c r="BW5" s="7"/>
-      <c r="BX5" s="7"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5"/>
+      <c r="AA5" s="5"/>
+      <c r="AB5" s="5"/>
+      <c r="AC5" s="5"/>
+      <c r="AD5" s="5"/>
+      <c r="AE5" s="5"/>
+      <c r="AF5" s="5"/>
+      <c r="AG5" s="5"/>
+      <c r="AH5" s="5"/>
+      <c r="AI5" s="7"/>
+      <c r="AJ5" s="7"/>
+      <c r="AK5" s="5"/>
+      <c r="AL5" s="5"/>
+      <c r="AM5" s="5"/>
+      <c r="AN5" s="5"/>
+      <c r="AO5" s="5"/>
+      <c r="AP5" s="5"/>
+      <c r="AQ5" s="5"/>
+      <c r="AR5" s="5"/>
+      <c r="AS5" s="5"/>
+      <c r="AT5" s="5"/>
+      <c r="AU5" s="5"/>
+      <c r="AV5" s="5"/>
+      <c r="AW5" s="5"/>
+      <c r="AX5" s="5"/>
+      <c r="AY5" s="5"/>
+      <c r="AZ5" s="5"/>
+      <c r="BA5" s="5"/>
+      <c r="BB5" s="5"/>
+      <c r="BC5" s="5"/>
+      <c r="BD5" s="5"/>
+      <c r="BE5" s="5"/>
+      <c r="BF5" s="5"/>
+      <c r="BG5" s="5"/>
+      <c r="BH5" s="5"/>
+      <c r="BI5" s="5"/>
+      <c r="BJ5" s="5"/>
+      <c r="BK5" s="5"/>
+      <c r="BL5" s="5"/>
+      <c r="BM5" s="5"/>
+      <c r="BN5" s="5"/>
+      <c r="BO5" s="5"/>
+      <c r="BP5" s="5"/>
+      <c r="BQ5" s="7"/>
+      <c r="BR5" s="7"/>
+      <c r="BS5" s="5"/>
+      <c r="BT5" s="5"/>
+      <c r="BU5" s="5"/>
+      <c r="BV5" s="5"/>
+      <c r="BW5" s="5"/>
+      <c r="BX5" s="5"/>
     </row>
     <row r="6" spans="1:76" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
@@ -3077,7 +3056,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.140625" style="6"/>
+    <col min="1" max="1" width="27.140625" style="4"/>
     <col min="2" max="2" width="44.5703125"/>
     <col min="3" max="3" width="21.5703125"/>
     <col min="4" max="4" width="14"/>
@@ -3101,201 +3080,201 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15" x14ac:dyDescent="0.25">
-      <c r="B1" s="6"/>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3" t="s">
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3" t="s">
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3" t="s">
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
     </row>
     <row r="2" spans="1:21" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="8" t="s">
+      <c r="D2" s="4"/>
+      <c r="E2" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="8" t="s">
+      <c r="F2" s="4"/>
+      <c r="G2" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="8" t="s">
+      <c r="H2" s="4"/>
+      <c r="I2" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="K2" s="6"/>
-      <c r="L2" s="8" t="s">
+      <c r="K2" s="4"/>
+      <c r="L2" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="M2" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="N2" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="O2" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="8" t="s">
+      <c r="P2" s="4"/>
+      <c r="Q2" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="R2" s="8" t="s">
+      <c r="R2" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="S2" s="8" t="s">
+      <c r="S2" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="T2" s="8" t="s">
+      <c r="T2" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="U2" s="6"/>
+      <c r="U2" s="4"/>
     </row>
     <row r="3" spans="1:21" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="L3" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="M3" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="N3" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="O3" s="6" t="s">
+      <c r="O3" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="P3" s="6" t="s">
+      <c r="P3" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="Q3" s="6" t="s">
+      <c r="Q3" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="R3" s="6" t="s">
+      <c r="R3" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="S3" s="6" t="s">
+      <c r="S3" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="T3" s="6" t="s">
+      <c r="T3" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="U3" s="6" t="s">
+      <c r="U3" s="4" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
-      <c r="U5" s="7"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3339,7 +3318,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.140625" style="6"/>
+    <col min="1" max="1" width="27.140625" style="4"/>
     <col min="2" max="2" width="44.5703125"/>
     <col min="3" max="3" width="21.5703125"/>
     <col min="4" max="4" width="14"/>
@@ -3363,233 +3342,233 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15" x14ac:dyDescent="0.25">
-      <c r="B1" s="6"/>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3" t="s">
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3" t="s">
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3" t="s">
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
     </row>
     <row r="2" spans="1:21" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="8" t="s">
+      <c r="D2" s="4"/>
+      <c r="E2" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="8" t="s">
+      <c r="F2" s="4"/>
+      <c r="G2" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="8" t="s">
+      <c r="H2" s="4"/>
+      <c r="I2" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="K2" s="6"/>
-      <c r="L2" s="8" t="s">
+      <c r="K2" s="4"/>
+      <c r="L2" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="M2" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="N2" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="O2" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="8" t="s">
+      <c r="P2" s="4"/>
+      <c r="Q2" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="R2" s="8" t="s">
+      <c r="R2" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="S2" s="8" t="s">
+      <c r="S2" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="T2" s="8" t="s">
+      <c r="T2" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="U2" s="6"/>
+      <c r="U2" s="4"/>
     </row>
     <row r="3" spans="1:21" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="L3" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="M3" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="N3" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="O3" s="6" t="s">
+      <c r="O3" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="P3" s="6" t="s">
+      <c r="P3" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="Q3" s="6" t="s">
+      <c r="Q3" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="R3" s="6" t="s">
+      <c r="R3" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="S3" s="6" t="s">
+      <c r="S3" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="T3" s="6" t="s">
+      <c r="T3" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="U3" s="6" t="s">
+      <c r="U3" s="4" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="J5" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="K5" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7" t="s">
+      <c r="L5" s="5"/>
+      <c r="M5" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7" t="s">
+      <c r="N5" s="5"/>
+      <c r="O5" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="P5" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="Q5" s="7" t="s">
+      <c r="Q5" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="R5" s="7" t="s">
+      <c r="R5" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="S5" s="7" t="s">
+      <c r="S5" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="T5" s="7" t="s">
+      <c r="T5" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="U5" s="7" t="s">
+      <c r="U5" s="5" t="s">
         <v>150</v>
       </c>
     </row>
@@ -3762,179 +3741,179 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="10"/>
-      <c r="B1" s="10" t="s">
+      <c r="A1" s="8"/>
+      <c r="B1" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="8" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="12" t="s">
         <v>49</v>
       </c>
       <c r="B2" t="s">
         <v>58</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="F2" s="11"/>
+      <c r="F2" s="9"/>
       <c r="K2" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1"/>
+      <c r="A3" s="12"/>
       <c r="B3" t="s">
         <v>59</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="F3" s="11"/>
+      <c r="F3" s="9"/>
       <c r="K3" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
+      <c r="A4" s="12"/>
       <c r="B4" t="s">
         <v>60</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="F4" s="11"/>
+      <c r="F4" s="9"/>
       <c r="K4" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
+      <c r="A5" s="12"/>
       <c r="B5" t="s">
         <v>61</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="F5" s="11"/>
+      <c r="F5" s="9"/>
       <c r="K5" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
+      <c r="A6" s="12"/>
       <c r="B6" t="s">
         <v>62</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="F6" s="11"/>
+      <c r="F6" s="9"/>
       <c r="K6" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="1"/>
+      <c r="A7" s="12"/>
       <c r="B7" t="s">
         <v>63</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="F7" s="11"/>
+      <c r="F7" s="9"/>
       <c r="K7" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="1"/>
+      <c r="A8" s="12"/>
       <c r="B8" t="s">
         <v>64</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="F8" s="11"/>
+      <c r="F8" s="9"/>
       <c r="K8" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="1"/>
+      <c r="A9" s="12"/>
       <c r="B9" t="s">
         <v>65</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="F9" s="11"/>
+      <c r="F9" s="9"/>
       <c r="K9" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="1"/>
+      <c r="A10" s="12"/>
       <c r="B10" t="s">
         <v>66</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="F10" s="11"/>
+      <c r="F10" s="9"/>
       <c r="K10" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
+      <c r="A11" s="12"/>
       <c r="B11" t="s">
         <v>67</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="F11" s="11"/>
+      <c r="F11" s="9"/>
       <c r="K11" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="1"/>
+      <c r="A12" s="12"/>
       <c r="B12" t="s">
         <v>68</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="F12" s="9" t="s">
         <v>187</v>
       </c>
       <c r="K12" t="s">
@@ -3942,14 +3921,14 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="1"/>
+      <c r="A13" s="12"/>
       <c r="B13" t="s">
         <v>69</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="F13" s="9" t="s">
         <v>189</v>
       </c>
       <c r="K13" t="s">
@@ -3957,14 +3936,14 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
+      <c r="A14" s="12"/>
       <c r="B14" t="s">
         <v>70</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="F14" s="9" t="s">
         <v>191</v>
       </c>
       <c r="K14" t="s">
@@ -3972,40 +3951,40 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="A15" s="1"/>
+      <c r="A15" s="12"/>
       <c r="B15" t="s">
         <v>71</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="F15" s="11"/>
+      <c r="F15" s="9"/>
       <c r="K15" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="1"/>
+      <c r="A16" s="12"/>
       <c r="B16" t="s">
         <v>72</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="F16" s="11"/>
+      <c r="F16" s="9"/>
       <c r="K16" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="1"/>
+      <c r="A17" s="12"/>
       <c r="B17" t="s">
         <v>73</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="F17" s="11" t="s">
+      <c r="F17" s="9" t="s">
         <v>195</v>
       </c>
       <c r="K17" t="s">
@@ -4013,27 +3992,27 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="1"/>
+      <c r="A18" s="12"/>
       <c r="B18" t="s">
         <v>74</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="F18" s="11"/>
+      <c r="F18" s="9"/>
       <c r="K18" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="1"/>
+      <c r="A19" s="12"/>
       <c r="B19" t="s">
         <v>75</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="F19" s="11" t="s">
+      <c r="F19" s="9" t="s">
         <v>198</v>
       </c>
       <c r="K19" t="s">
@@ -4041,157 +4020,157 @@
       </c>
     </row>
     <row r="20" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="1"/>
+      <c r="A20" s="12"/>
       <c r="B20" t="s">
         <v>76</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="F20" s="11"/>
+      <c r="F20" s="9"/>
       <c r="K20" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="1"/>
+      <c r="A21" s="12"/>
       <c r="B21" t="s">
         <v>77</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="F21" s="11"/>
+      <c r="F21" s="9"/>
       <c r="K21" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="1"/>
+      <c r="A22" s="12"/>
       <c r="B22" t="s">
         <v>78</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="F22" s="11"/>
+      <c r="F22" s="9"/>
       <c r="K22" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="1"/>
+      <c r="A23" s="12"/>
       <c r="B23" t="s">
         <v>79</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="F23" s="11"/>
+      <c r="F23" s="9"/>
       <c r="K23" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" s="1"/>
+      <c r="A24" s="12"/>
       <c r="B24" t="s">
         <v>80</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="D24" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="F24" s="11"/>
+      <c r="F24" s="9"/>
       <c r="K24" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="1"/>
+      <c r="A25" s="12"/>
       <c r="B25" t="s">
         <v>81</v>
       </c>
-      <c r="D25" s="11" t="s">
+      <c r="D25" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="F25" s="11"/>
+      <c r="F25" s="9"/>
       <c r="K25" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="1"/>
+      <c r="A26" s="12"/>
       <c r="B26" t="s">
         <v>82</v>
       </c>
-      <c r="D26" s="11" t="s">
+      <c r="D26" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="F26" s="11"/>
+      <c r="F26" s="9"/>
       <c r="K26" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" s="1"/>
+      <c r="A27" s="12"/>
       <c r="B27" t="s">
         <v>83</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="D27" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="F27" s="11"/>
+      <c r="F27" s="9"/>
       <c r="K27" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" s="1"/>
+      <c r="A28" s="12"/>
       <c r="B28" t="s">
         <v>84</v>
       </c>
-      <c r="D28" s="11" t="s">
+      <c r="D28" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="F28" s="11"/>
+      <c r="F28" s="9"/>
       <c r="K28" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A29" s="1"/>
+      <c r="A29" s="12"/>
       <c r="B29" t="s">
         <v>85</v>
       </c>
-      <c r="D29" s="11" t="s">
+      <c r="D29" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="F29" s="11"/>
+      <c r="F29" s="9"/>
       <c r="K29" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30" s="1"/>
+      <c r="A30" s="12"/>
       <c r="B30" t="s">
         <v>86</v>
       </c>
-      <c r="D30" s="11" t="s">
+      <c r="D30" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="F30" s="11"/>
+      <c r="F30" s="9"/>
       <c r="K30" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A31" s="1"/>
+      <c r="A31" s="12"/>
       <c r="B31" t="s">
         <v>87</v>
       </c>
-      <c r="D31" s="11" t="s">
+      <c r="D31" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="F31" s="11" t="s">
+      <c r="F31" s="9" t="s">
         <v>210</v>
       </c>
       <c r="K31" t="s">
@@ -4199,146 +4178,146 @@
       </c>
     </row>
     <row r="32" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A32" s="1"/>
+      <c r="A32" s="12"/>
       <c r="B32" t="s">
         <v>88</v>
       </c>
-      <c r="D32" s="11" t="s">
+      <c r="D32" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="F32" s="11"/>
+      <c r="F32" s="9"/>
       <c r="K32" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A33" s="1"/>
+      <c r="A33" s="12"/>
       <c r="B33" t="s">
         <v>89</v>
       </c>
-      <c r="D33" s="11" t="s">
+      <c r="D33" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="F33" s="11"/>
+      <c r="F33" s="9"/>
       <c r="K33" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A34" s="1"/>
+      <c r="A34" s="12"/>
       <c r="B34" t="s">
         <v>90</v>
       </c>
-      <c r="D34" s="11" t="s">
+      <c r="D34" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="F34" s="11"/>
+      <c r="F34" s="9"/>
       <c r="K34" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="12" t="s">
         <v>50</v>
       </c>
       <c r="B35" t="s">
         <v>61</v>
       </c>
-      <c r="D35" s="11" t="s">
+      <c r="D35" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="F35" s="11"/>
+      <c r="F35" s="9"/>
       <c r="K35" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A36" s="1"/>
+      <c r="A36" s="12"/>
       <c r="B36" t="s">
         <v>62</v>
       </c>
-      <c r="D36" s="11" t="s">
+      <c r="D36" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="F36" s="11"/>
+      <c r="F36" s="9"/>
       <c r="K36" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A37" s="1"/>
+      <c r="A37" s="12"/>
       <c r="B37" t="s">
         <v>63</v>
       </c>
-      <c r="D37" s="11" t="s">
+      <c r="D37" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="F37" s="11"/>
+      <c r="F37" s="9"/>
       <c r="K37" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A38" s="1"/>
+      <c r="A38" s="12"/>
       <c r="B38" t="s">
         <v>64</v>
       </c>
-      <c r="D38" s="11" t="s">
+      <c r="D38" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="F38" s="11"/>
+      <c r="F38" s="9"/>
       <c r="K38" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A39" s="1"/>
+      <c r="A39" s="12"/>
       <c r="B39" t="s">
         <v>65</v>
       </c>
-      <c r="D39" s="11" t="s">
+      <c r="D39" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="F39" s="11"/>
+      <c r="F39" s="9"/>
       <c r="K39" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A40" s="1"/>
+      <c r="A40" s="12"/>
       <c r="B40" t="s">
         <v>66</v>
       </c>
-      <c r="D40" s="11" t="s">
+      <c r="D40" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="F40" s="11"/>
+      <c r="F40" s="9"/>
       <c r="K40" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A41" s="1"/>
+      <c r="A41" s="12"/>
       <c r="B41" t="s">
         <v>67</v>
       </c>
-      <c r="D41" s="11" t="s">
+      <c r="D41" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="F41" s="11"/>
+      <c r="F41" s="9"/>
       <c r="K41" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A42" s="1"/>
+      <c r="A42" s="12"/>
       <c r="B42" t="s">
         <v>68</v>
       </c>
-      <c r="D42" s="11" t="s">
+      <c r="D42" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="F42" s="11" t="s">
+      <c r="F42" s="9" t="s">
         <v>187</v>
       </c>
       <c r="K42" t="s">
@@ -4346,14 +4325,14 @@
       </c>
     </row>
     <row r="43" spans="1:11" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A43" s="1"/>
+      <c r="A43" s="12"/>
       <c r="B43" t="s">
         <v>69</v>
       </c>
-      <c r="D43" s="11" t="s">
+      <c r="D43" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="F43" s="11" t="s">
+      <c r="F43" s="9" t="s">
         <v>189</v>
       </c>
       <c r="K43" t="s">
@@ -4361,14 +4340,14 @@
       </c>
     </row>
     <row r="44" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A44" s="1"/>
+      <c r="A44" s="12"/>
       <c r="B44" t="s">
         <v>70</v>
       </c>
-      <c r="D44" s="11" t="s">
+      <c r="D44" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="F44" s="11" t="s">
+      <c r="F44" s="9" t="s">
         <v>191</v>
       </c>
       <c r="K44" t="s">
@@ -4376,40 +4355,40 @@
       </c>
     </row>
     <row r="45" spans="1:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="A45" s="1"/>
+      <c r="A45" s="12"/>
       <c r="B45" t="s">
         <v>71</v>
       </c>
-      <c r="D45" s="11" t="s">
+      <c r="D45" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="F45" s="11"/>
+      <c r="F45" s="9"/>
       <c r="K45" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A46" s="1"/>
+      <c r="A46" s="12"/>
       <c r="B46" t="s">
         <v>72</v>
       </c>
-      <c r="D46" s="11" t="s">
+      <c r="D46" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="F46" s="11"/>
+      <c r="F46" s="9"/>
       <c r="K46" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A47" s="1"/>
+      <c r="A47" s="12"/>
       <c r="B47" t="s">
         <v>73</v>
       </c>
-      <c r="D47" s="11" t="s">
+      <c r="D47" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="F47" s="11" t="s">
+      <c r="F47" s="9" t="s">
         <v>195</v>
       </c>
       <c r="K47" t="s">
@@ -4417,27 +4396,27 @@
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A48" s="1"/>
+      <c r="A48" s="12"/>
       <c r="B48" t="s">
         <v>74</v>
       </c>
-      <c r="D48" s="11" t="s">
+      <c r="D48" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="F48" s="11"/>
+      <c r="F48" s="9"/>
       <c r="K48" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A49" s="1"/>
+      <c r="A49" s="12"/>
       <c r="B49" t="s">
         <v>75</v>
       </c>
-      <c r="D49" s="11" t="s">
+      <c r="D49" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="F49" s="11" t="s">
+      <c r="F49" s="9" t="s">
         <v>198</v>
       </c>
       <c r="K49" t="s">
@@ -4445,157 +4424,157 @@
       </c>
     </row>
     <row r="50" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A50" s="1"/>
+      <c r="A50" s="12"/>
       <c r="B50" t="s">
         <v>76</v>
       </c>
-      <c r="D50" s="11" t="s">
+      <c r="D50" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="F50" s="11"/>
+      <c r="F50" s="9"/>
       <c r="K50" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A51" s="1"/>
+      <c r="A51" s="12"/>
       <c r="B51" t="s">
         <v>77</v>
       </c>
-      <c r="D51" s="11" t="s">
+      <c r="D51" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="F51" s="11"/>
+      <c r="F51" s="9"/>
       <c r="K51" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A52" s="1"/>
+      <c r="A52" s="12"/>
       <c r="B52" t="s">
         <v>78</v>
       </c>
-      <c r="D52" s="11" t="s">
+      <c r="D52" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="F52" s="11"/>
+      <c r="F52" s="9"/>
       <c r="K52" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A53" s="1"/>
+      <c r="A53" s="12"/>
       <c r="B53" t="s">
         <v>79</v>
       </c>
-      <c r="D53" s="11" t="s">
+      <c r="D53" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="F53" s="11"/>
+      <c r="F53" s="9"/>
       <c r="K53" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A54" s="1"/>
+      <c r="A54" s="12"/>
       <c r="B54" t="s">
         <v>80</v>
       </c>
-      <c r="D54" s="11" t="s">
+      <c r="D54" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="F54" s="11"/>
+      <c r="F54" s="9"/>
       <c r="K54" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A55" s="1"/>
+      <c r="A55" s="12"/>
       <c r="B55" t="s">
         <v>81</v>
       </c>
-      <c r="D55" s="11" t="s">
+      <c r="D55" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="F55" s="11"/>
+      <c r="F55" s="9"/>
       <c r="K55" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A56" s="1"/>
+      <c r="A56" s="12"/>
       <c r="B56" t="s">
         <v>82</v>
       </c>
-      <c r="D56" s="11" t="s">
+      <c r="D56" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="F56" s="11"/>
+      <c r="F56" s="9"/>
       <c r="K56" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A57" s="1"/>
+      <c r="A57" s="12"/>
       <c r="B57" t="s">
         <v>83</v>
       </c>
-      <c r="D57" s="11" t="s">
+      <c r="D57" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="F57" s="11"/>
+      <c r="F57" s="9"/>
       <c r="K57" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A58" s="1"/>
+      <c r="A58" s="12"/>
       <c r="B58" t="s">
         <v>84</v>
       </c>
-      <c r="D58" s="11" t="s">
+      <c r="D58" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="F58" s="11"/>
+      <c r="F58" s="9"/>
       <c r="K58" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A59" s="1"/>
+      <c r="A59" s="12"/>
       <c r="B59" t="s">
         <v>85</v>
       </c>
-      <c r="D59" s="11" t="s">
+      <c r="D59" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="F59" s="11"/>
+      <c r="F59" s="9"/>
       <c r="K59" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A60" s="1"/>
+      <c r="A60" s="12"/>
       <c r="B60" t="s">
         <v>86</v>
       </c>
-      <c r="D60" s="11" t="s">
+      <c r="D60" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="F60" s="11"/>
+      <c r="F60" s="9"/>
       <c r="K60" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A61" s="1"/>
+      <c r="A61" s="12"/>
       <c r="B61" t="s">
         <v>90</v>
       </c>
-      <c r="D61" s="11" t="s">
+      <c r="D61" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="F61" s="11"/>
+      <c r="F61" s="9"/>
       <c r="K61" t="s">
         <v>180</v>
       </c>

--- a/catalogue-service-micro/src/test/resources/template/MDF_Raw_MDF_Painted.xlsx
+++ b/catalogue-service-micro/src/test/resources/template/MDF_Raw_MDF_Painted.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\doguk\Desktop\Nimble\catalog-service\catalogue-service-micro\src\test\resources\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAFA59ED-29A0-4671-8135-9B9652F2264B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12E23598-4639-4817-B136-65A24C0CE817}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="993" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="993" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="230">
   <si>
     <t>How to fill in this template?</t>
   </si>
@@ -796,7 +796,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -817,9 +817,11 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1394,7 +1396,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BX5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E1" sqref="E1:BX5"/>
     </sheetView>
   </sheetViews>
@@ -3048,10 +3050,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:U5"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3079,37 +3081,36 @@
     <col min="22" max="1025" width="10.85546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="B1" s="4"/>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10" t="s">
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10" t="s">
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10" t="s">
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="10" t="s">
         <v>123</v>
       </c>
+      <c r="S1" s="10"/>
       <c r="T1" s="10"/>
-      <c r="U1" s="10"/>
-    </row>
-    <row r="2" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>51</v>
       </c>
@@ -3149,20 +3150,17 @@
       </c>
       <c r="P2" s="4"/>
       <c r="Q2" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="R2" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="S2" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="T2" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="U2" s="4"/>
-    </row>
-    <row r="3" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="T2" s="4"/>
+    </row>
+    <row r="3" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>91</v>
       </c>
@@ -3218,16 +3216,13 @@
         <v>92</v>
       </c>
       <c r="S3" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="T3" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="U3" s="4" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>98</v>
       </c>
@@ -3250,9 +3245,8 @@
       <c r="R4" s="4"/>
       <c r="S4" s="4"/>
       <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">
         <v>99</v>
       </c>
@@ -3274,14 +3268,11 @@
       <c r="R5" s="5"/>
       <c r="S5" s="5"/>
       <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="2">
     <mergeCell ref="C1:I1"/>
     <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:R1"/>
-    <mergeCell ref="S1:U1"/>
   </mergeCells>
   <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Invalid input !" error="Please, select one of the available options" sqref="D5" xr:uid="{00000000-0002-0000-0300-000000000000}">
@@ -3343,33 +3334,33 @@
   <sheetData>
     <row r="1" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="B1" s="4"/>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10" t="s">
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10" t="s">
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10" t="s">
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="T1" s="10"/>
-      <c r="U1" s="10"/>
+      <c r="T1" s="12"/>
+      <c r="U1" s="12"/>
     </row>
     <row r="2" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
@@ -3774,7 +3765,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="13" t="s">
         <v>49</v>
       </c>
       <c r="B2" t="s">
@@ -3789,7 +3780,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="12"/>
+      <c r="A3" s="13"/>
       <c r="B3" t="s">
         <v>59</v>
       </c>
@@ -3802,7 +3793,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="12"/>
+      <c r="A4" s="13"/>
       <c r="B4" t="s">
         <v>60</v>
       </c>
@@ -3815,7 +3806,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="12"/>
+      <c r="A5" s="13"/>
       <c r="B5" t="s">
         <v>61</v>
       </c>
@@ -3828,7 +3819,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="12"/>
+      <c r="A6" s="13"/>
       <c r="B6" t="s">
         <v>62</v>
       </c>
@@ -3841,7 +3832,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="12"/>
+      <c r="A7" s="13"/>
       <c r="B7" t="s">
         <v>63</v>
       </c>
@@ -3854,7 +3845,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="12"/>
+      <c r="A8" s="13"/>
       <c r="B8" t="s">
         <v>64</v>
       </c>
@@ -3867,7 +3858,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="12"/>
+      <c r="A9" s="13"/>
       <c r="B9" t="s">
         <v>65</v>
       </c>
@@ -3880,7 +3871,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="12"/>
+      <c r="A10" s="13"/>
       <c r="B10" t="s">
         <v>66</v>
       </c>
@@ -3893,7 +3884,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="12"/>
+      <c r="A11" s="13"/>
       <c r="B11" t="s">
         <v>67</v>
       </c>
@@ -3906,7 +3897,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="12"/>
+      <c r="A12" s="13"/>
       <c r="B12" t="s">
         <v>68</v>
       </c>
@@ -3921,7 +3912,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="12"/>
+      <c r="A13" s="13"/>
       <c r="B13" t="s">
         <v>69</v>
       </c>
@@ -3936,7 +3927,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="12"/>
+      <c r="A14" s="13"/>
       <c r="B14" t="s">
         <v>70</v>
       </c>
@@ -3951,7 +3942,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="A15" s="12"/>
+      <c r="A15" s="13"/>
       <c r="B15" t="s">
         <v>71</v>
       </c>
@@ -3964,7 +3955,7 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="12"/>
+      <c r="A16" s="13"/>
       <c r="B16" t="s">
         <v>72</v>
       </c>
@@ -3977,7 +3968,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="12"/>
+      <c r="A17" s="13"/>
       <c r="B17" t="s">
         <v>73</v>
       </c>
@@ -3992,7 +3983,7 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="12"/>
+      <c r="A18" s="13"/>
       <c r="B18" t="s">
         <v>74</v>
       </c>
@@ -4005,7 +3996,7 @@
       </c>
     </row>
     <row r="19" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="12"/>
+      <c r="A19" s="13"/>
       <c r="B19" t="s">
         <v>75</v>
       </c>
@@ -4020,7 +4011,7 @@
       </c>
     </row>
     <row r="20" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="12"/>
+      <c r="A20" s="13"/>
       <c r="B20" t="s">
         <v>76</v>
       </c>
@@ -4033,7 +4024,7 @@
       </c>
     </row>
     <row r="21" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="12"/>
+      <c r="A21" s="13"/>
       <c r="B21" t="s">
         <v>77</v>
       </c>
@@ -4046,7 +4037,7 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="12"/>
+      <c r="A22" s="13"/>
       <c r="B22" t="s">
         <v>78</v>
       </c>
@@ -4059,7 +4050,7 @@
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="12"/>
+      <c r="A23" s="13"/>
       <c r="B23" t="s">
         <v>79</v>
       </c>
@@ -4072,7 +4063,7 @@
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" s="12"/>
+      <c r="A24" s="13"/>
       <c r="B24" t="s">
         <v>80</v>
       </c>
@@ -4085,7 +4076,7 @@
       </c>
     </row>
     <row r="25" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="12"/>
+      <c r="A25" s="13"/>
       <c r="B25" t="s">
         <v>81</v>
       </c>
@@ -4098,7 +4089,7 @@
       </c>
     </row>
     <row r="26" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="12"/>
+      <c r="A26" s="13"/>
       <c r="B26" t="s">
         <v>82</v>
       </c>
@@ -4111,7 +4102,7 @@
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" s="12"/>
+      <c r="A27" s="13"/>
       <c r="B27" t="s">
         <v>83</v>
       </c>
@@ -4124,7 +4115,7 @@
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" s="12"/>
+      <c r="A28" s="13"/>
       <c r="B28" t="s">
         <v>84</v>
       </c>
@@ -4137,7 +4128,7 @@
       </c>
     </row>
     <row r="29" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A29" s="12"/>
+      <c r="A29" s="13"/>
       <c r="B29" t="s">
         <v>85</v>
       </c>
@@ -4150,7 +4141,7 @@
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30" s="12"/>
+      <c r="A30" s="13"/>
       <c r="B30" t="s">
         <v>86</v>
       </c>
@@ -4163,7 +4154,7 @@
       </c>
     </row>
     <row r="31" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A31" s="12"/>
+      <c r="A31" s="13"/>
       <c r="B31" t="s">
         <v>87</v>
       </c>
@@ -4178,7 +4169,7 @@
       </c>
     </row>
     <row r="32" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A32" s="12"/>
+      <c r="A32" s="13"/>
       <c r="B32" t="s">
         <v>88</v>
       </c>
@@ -4191,7 +4182,7 @@
       </c>
     </row>
     <row r="33" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A33" s="12"/>
+      <c r="A33" s="13"/>
       <c r="B33" t="s">
         <v>89</v>
       </c>
@@ -4204,7 +4195,7 @@
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A34" s="12"/>
+      <c r="A34" s="13"/>
       <c r="B34" t="s">
         <v>90</v>
       </c>
@@ -4217,7 +4208,7 @@
       </c>
     </row>
     <row r="35" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A35" s="12" t="s">
+      <c r="A35" s="13" t="s">
         <v>50</v>
       </c>
       <c r="B35" t="s">
@@ -4232,7 +4223,7 @@
       </c>
     </row>
     <row r="36" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A36" s="12"/>
+      <c r="A36" s="13"/>
       <c r="B36" t="s">
         <v>62</v>
       </c>
@@ -4245,7 +4236,7 @@
       </c>
     </row>
     <row r="37" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A37" s="12"/>
+      <c r="A37" s="13"/>
       <c r="B37" t="s">
         <v>63</v>
       </c>
@@ -4258,7 +4249,7 @@
       </c>
     </row>
     <row r="38" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A38" s="12"/>
+      <c r="A38" s="13"/>
       <c r="B38" t="s">
         <v>64</v>
       </c>
@@ -4271,7 +4262,7 @@
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A39" s="12"/>
+      <c r="A39" s="13"/>
       <c r="B39" t="s">
         <v>65</v>
       </c>
@@ -4284,7 +4275,7 @@
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A40" s="12"/>
+      <c r="A40" s="13"/>
       <c r="B40" t="s">
         <v>66</v>
       </c>
@@ -4297,7 +4288,7 @@
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A41" s="12"/>
+      <c r="A41" s="13"/>
       <c r="B41" t="s">
         <v>67</v>
       </c>
@@ -4310,7 +4301,7 @@
       </c>
     </row>
     <row r="42" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A42" s="12"/>
+      <c r="A42" s="13"/>
       <c r="B42" t="s">
         <v>68</v>
       </c>
@@ -4325,7 +4316,7 @@
       </c>
     </row>
     <row r="43" spans="1:11" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A43" s="12"/>
+      <c r="A43" s="13"/>
       <c r="B43" t="s">
         <v>69</v>
       </c>
@@ -4340,7 +4331,7 @@
       </c>
     </row>
     <row r="44" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A44" s="12"/>
+      <c r="A44" s="13"/>
       <c r="B44" t="s">
         <v>70</v>
       </c>
@@ -4355,7 +4346,7 @@
       </c>
     </row>
     <row r="45" spans="1:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="A45" s="12"/>
+      <c r="A45" s="13"/>
       <c r="B45" t="s">
         <v>71</v>
       </c>
@@ -4368,7 +4359,7 @@
       </c>
     </row>
     <row r="46" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A46" s="12"/>
+      <c r="A46" s="13"/>
       <c r="B46" t="s">
         <v>72</v>
       </c>
@@ -4381,7 +4372,7 @@
       </c>
     </row>
     <row r="47" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A47" s="12"/>
+      <c r="A47" s="13"/>
       <c r="B47" t="s">
         <v>73</v>
       </c>
@@ -4396,7 +4387,7 @@
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A48" s="12"/>
+      <c r="A48" s="13"/>
       <c r="B48" t="s">
         <v>74</v>
       </c>
@@ -4409,7 +4400,7 @@
       </c>
     </row>
     <row r="49" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A49" s="12"/>
+      <c r="A49" s="13"/>
       <c r="B49" t="s">
         <v>75</v>
       </c>
@@ -4424,7 +4415,7 @@
       </c>
     </row>
     <row r="50" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A50" s="12"/>
+      <c r="A50" s="13"/>
       <c r="B50" t="s">
         <v>76</v>
       </c>
@@ -4437,7 +4428,7 @@
       </c>
     </row>
     <row r="51" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A51" s="12"/>
+      <c r="A51" s="13"/>
       <c r="B51" t="s">
         <v>77</v>
       </c>
@@ -4450,7 +4441,7 @@
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A52" s="12"/>
+      <c r="A52" s="13"/>
       <c r="B52" t="s">
         <v>78</v>
       </c>
@@ -4463,7 +4454,7 @@
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A53" s="12"/>
+      <c r="A53" s="13"/>
       <c r="B53" t="s">
         <v>79</v>
       </c>
@@ -4476,7 +4467,7 @@
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A54" s="12"/>
+      <c r="A54" s="13"/>
       <c r="B54" t="s">
         <v>80</v>
       </c>
@@ -4489,7 +4480,7 @@
       </c>
     </row>
     <row r="55" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A55" s="12"/>
+      <c r="A55" s="13"/>
       <c r="B55" t="s">
         <v>81</v>
       </c>
@@ -4502,7 +4493,7 @@
       </c>
     </row>
     <row r="56" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A56" s="12"/>
+      <c r="A56" s="13"/>
       <c r="B56" t="s">
         <v>82</v>
       </c>
@@ -4515,7 +4506,7 @@
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A57" s="12"/>
+      <c r="A57" s="13"/>
       <c r="B57" t="s">
         <v>83</v>
       </c>
@@ -4528,7 +4519,7 @@
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A58" s="12"/>
+      <c r="A58" s="13"/>
       <c r="B58" t="s">
         <v>84</v>
       </c>
@@ -4541,7 +4532,7 @@
       </c>
     </row>
     <row r="59" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A59" s="12"/>
+      <c r="A59" s="13"/>
       <c r="B59" t="s">
         <v>85</v>
       </c>
@@ -4554,7 +4545,7 @@
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A60" s="12"/>
+      <c r="A60" s="13"/>
       <c r="B60" t="s">
         <v>86</v>
       </c>
@@ -4567,7 +4558,7 @@
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A61" s="12"/>
+      <c r="A61" s="13"/>
       <c r="B61" t="s">
         <v>90</v>
       </c>
